--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/19_Bolu_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/19_Bolu_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3A288D-34B2-413F-9570-C8BB5D3406EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40872FF8-EBA1-45BC-8597-2F53BFCDE916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{A11A3AB4-5F5E-4A63-BE51-C18BE685F109}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{02BAE367-01DC-43B4-AC24-7659B882D469}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{83991278-B91C-499B-AFA5-CED8F18BA5CB}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E0DBC53B-40F3-49A6-8438-37139B7566A0}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{FBC488C5-DD94-4696-8D4A-C3775AA45077}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{449CA73C-8C59-47A7-9242-94F6E66A47EB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{272733C5-B99B-4678-988D-DD3F71A515F3}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{F5D7AAC2-D221-4A93-9A53-2059A14F78F8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{65C742D7-A4A9-4902-ACDA-9BFCCE124D85}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0C68DD48-B4A0-4652-8040-82F0DA9A1ADA}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{85602B6B-C49E-4ABB-ABE3-45B82E8D8FCE}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A895C5B4-A987-4C04-B4BF-60F263CF52BF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{58EC368A-3CB0-43F0-ADD4-8702627C2C60}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DDA2B50A-4F78-4E02-B7CD-1828594E5152}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{FF2B5CC6-6B70-4C62-8AFA-F1FEDCC7640E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{D265F0B7-4A9B-465B-8E39-E4E2835731E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242DC18C-9390-4233-A5B7-FE5F4A31CC2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251FB71-EF8D-42A7-B165-F2473F4615CD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2546,7 +2546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EF5D57-0697-4C14-8072-E478BA55011A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8711271D-1EF6-4983-9F3D-783C36DE2DDB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3811,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21810541-F11B-47DB-819E-28E7B16B2E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65654CE5-9502-4BA6-9349-093CAD9EA327}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5078,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B5F57-9461-433D-B330-28C9556C4DC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62AA1AF-0A2C-419B-9102-F5252D55DE77}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6341,7 +6341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AFA4E9-800A-4636-B4B8-46C9FF6E266D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4651D833-5D91-4C49-8688-2A34EDFF6140}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7608,7 +7608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8C8670-843B-4A74-B8B9-08A69BE1D0F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57B44E9-7A31-40E0-90AE-BBE3BD1D405E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8877,7 +8877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86CB00E-BA4E-44BC-BAEF-7CED74C86419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6F95F-FFF5-446A-8305-6DC7AABED9DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10142,7 +10142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7216F8C8-6C2C-4288-91FF-F6F68C0181BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC66549D-31BA-4E17-BDDE-B4B99A67150F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11407,7 +11407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1027F87-1FC3-48C9-966F-95BCFB3AF1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC31295-C04B-44FA-B8D1-0C605F32EBC8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12676,7 +12676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8761D38-725F-4034-8B1B-519B6A2567CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAE6D10-9373-4D1E-8702-9C8316412CE1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13947,7 +13947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79135D9E-B1B9-4B8F-AABF-76E950368929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FAC9F5-8175-49C2-A990-D5A7F6723AA4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15214,7 +15214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5AA3A5-B860-4B71-8B03-F39067DC6B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5669EB-7467-43D8-9407-7C334888FD25}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
